--- a/biology/Médecine/Association_française_contre_les_myopathies/Association_française_contre_les_myopathies.xlsx
+++ b/biology/Médecine/Association_française_contre_les_myopathies/Association_française_contre_les_myopathies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_contre_les_myopathies</t>
+          <t>Association_française_contre_les_myopathies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Association française contre les myopathies, ou AFM puis AFM-Téléthon, est une association française de malades et parents de malades créée en 1958 reconnue d'utilité publique depuis 1976[1].
-Sur le long terme, son but est de trouver une solution thérapeutique aux maladies neuromusculaires, par le biais de la recherche médicale et plus particulièrement de la recherche sur les thérapies géniques. À court terme, l'AFM-Téléthon a pour objectif d'améliorer le quotidien des malades en favorisant un meilleur accès aux soins, et un meilleur accompagnement social[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Association française contre les myopathies, ou AFM puis AFM-Téléthon, est une association française de malades et parents de malades créée en 1958 reconnue d'utilité publique depuis 1976.
+Sur le long terme, son but est de trouver une solution thérapeutique aux maladies neuromusculaires, par le biais de la recherche médicale et plus particulièrement de la recherche sur les thérapies géniques. À court terme, l'AFM-Téléthon a pour objectif d'améliorer le quotidien des malades en favorisant un meilleur accès aux soins, et un meilleur accompagnement social.
 Initialement consacrée aux seules maladies neuromusculaires, les recherches soutenues par l'AFM couvrent maintenant un large ensemble de maladies génétiques.
-Depuis 1987, l'AFM est organisatrice du Téléthon en France, qui lui apporte une très grande part de ses fonds et constitue le vecteur principal de communication de l'association[2].
+Depuis 1987, l'AFM est organisatrice du Téléthon en France, qui lui apporte une très grande part de ses fonds et constitue le vecteur principal de communication de l'association.
 Laurence Tiennot-Herment est la Présidente de l'AFM, Jean-Pierre Gaspard et Christian Cottet en sont les Directeurs généraux et Serge Braun en est le Directeur scientifique.
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_contre_les_myopathies</t>
+          <t>Association_française_contre_les_myopathies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,48 @@
           <t>Ses missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'AFM-Téléthon s'est fixé pour mission de développer les systèmes d'aide aux personnes malades en développant à la fois les moyens permettant d'améliorer les conditions de vies des familles et malades, mais aussi en développant la recherche scientifique sur les maladies concernées.
-Aider
-Un des objectifs de l'AFM-Téléthon est de réduire le handicap des malades, soit en favorisant l'accès aux soins soit en aidant à développer des outils de compensation des handicaps.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AFM-Téléthon s'est fixé pour mission de développer les systèmes d'aide aux personnes malades en développant à la fois les moyens permettant d'améliorer les conditions de vies des familles et malades, mais aussi en développant la recherche scientifique sur les maladies concernées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Association_française_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ses missions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aider</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un des objectifs de l'AFM-Téléthon est de réduire le handicap des malades, soit en favorisant l'accès aux soins soit en aidant à développer des outils de compensation des handicaps.
 L'AFM-Téléthon est impliquée dans le développement d'aides techniques innovantes permettant de compenser les pertes de fonctions, comme la motricité. Cela s'est traduit entre autres par de forts investissement dans des programmes de développement de fauteuils électriques, lève-bras permettant de saisir des objets, de manger seul, d'outils de synthèse vocale prononçant les phrases tapées sur un ordinateur, etc.
 L'AFM-Téléthon assure également un accompagnement des familles, comportant, entre autres, une aide à l'accès aux matériels et aux fabricants, ainsi que des aides dans les démarches administratives.
 Les actions de l'AFM-Téléthon en termes d'aide aux malades suivent quatre axes :
@@ -536,18 +585,126 @@
 l'accueil et le service aux familles (notamment numéro H24 d'écoute et d'orientation avec astreinte médicale),
 le développement d'aides techniques innovantes, par le partenariat avec les acteurs des milieux industriels et de recherche, ainsi que par la création de prototypes,
 le suivi de l'appel à projet Pour l'égalité des droits et des chances, la participation et la citoyenneté des personnes handicapées" ;
-communiquer auprès de tous : Inscrite dans les statuts de l’AFM-Téléthon, la mission « Communiquer » vise à améliorer la connaissance sur des maladies longtemps ignorées et à diffuser les avancées de l’innovation thérapeutique. Mais aussi à défendre la place des patients dans la société.
-En chiffres
-En 2015, l'AFM-Téléthon a consacré 99.5 Millions d'euros à ses missions sociales, soit 81,9 % du budget[3] :
+communiquer auprès de tous : Inscrite dans les statuts de l’AFM-Téléthon, la mission « Communiquer » vise à améliorer la connaissance sur des maladies longtemps ignorées et à diffuser les avancées de l’innovation thérapeutique. Mais aussi à défendre la place des patients dans la société.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Association_française_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ses missions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aider</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>En chiffres</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, l'AFM-Téléthon a consacré 99.5 Millions d'euros à ses missions sociales, soit 81,9 % du budget :
 63,8 millions d'euros ont été consacrés à la mission Guérir ;
 33,5 millions d'euros aux activités d'aide aux malades et familles ;
 2,2 millions à la mission Communiquer.
 Les frais de collectes représentent en 2015 12,9 millions d'euros (10,6 %) et les frais de gestion 9,1 millions d’euros (7,5 %).
-Communiquer
-Partager et sensibiliser pour avancer ensemble
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Association_française_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ses missions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Communiquer</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Partager et sensibiliser pour avancer ensemble
 VLM : Destiné aux personnes atteintes de maladie neuromusculaire et à leur entourage.
-Guérir
-Dans son approche scientifique l'AFM-Téléthon utilise plusieurs voies complémentaires[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Association_française_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ses missions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Guérir</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dans son approche scientifique l'AFM-Téléthon utilise plusieurs voies complémentaires :
 les appels d'offres ; par ce biais l'AFM-Téléthon finance des scientifiques indépendants de l'association (financement de personnels et/ou matériels) ;
 les institutions propres à l'AFM-Téléthon :
 Généthon créé en 1990 - centre de recherche et d'application sur les thérapies géniques,
@@ -556,11 +713,49 @@
 les partenariats :
 industriels : collaboration avec les entreprises de l'industrie pharmaceutique pour le développement de médicaments,
 publics : collaboration scientifique entre l'état et l'association comme les appels d'offres communs AFM-Téléthon/Inserm,
-semi-publics : collaboration scientifique entre l'état via le CNRS, une entreprise privée IBM et l'association comme le Décrypthon[5] ;
+semi-publics : collaboration scientifique entre l'état via le CNRS, une entreprise privée IBM et l'association comme le Décrypthon ;
 « la politique de sites » : l'AFM-Téléthon influe sur le paysage scientifique français en favorisant le regroupement géographie des compétences, la création du genopole d'Évry en étant le premier exemple ;
-suivi des recherches et découvertes : l'AFM-Téléthon veille à être partie prenante des phases de valorisation des recherches qu'elle contribue à financer, ainsi elle est co-déposante des brevets obtenus et participe à l'exploitation de ceux-ci.
-En chiffres
-En 2008[6] :
+suivi des recherches et découvertes : l'AFM-Téléthon veille à être partie prenante des phases de valorisation des recherches qu'elle contribue à financer, ainsi elle est co-déposante des brevets obtenus et participe à l'exploitation de ceux-ci.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Association_française_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ses missions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Guérir</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>En chiffres</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 2008 :
 974,054 euros ont été utilisés dans le cadre de programmes de recherche internationaux avec les universités de Pennsylvanie ou de Laval (Canada), ainsi qu'avec la société Cellgène ;
 7 154 365 euros ont été consacrés aux partenariats académiques et 3 314 738 euros aux partenariats industriels ;
 10 228 000 euros ont été accordés à des chercheurs ou des instituts dans le cadre des appels d'offres ;
@@ -570,62 +765,66 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Association_fran%C3%A7aise_contre_les_myopathies</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Association_française_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Chiffres clé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>6 000 à 8,000 maladies rares dont 200 maladies neuromusculaires : 80 % de ces maladies sont d'origine génétique.
 30 millions de personnes touchées en Europe dont 3 millions en France (soit 4,7 % de la population française - sur les 64 millions)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Association_fran%C3%A7aise_contre_les_myopathies</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Association_française_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Dates</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1958 : création de l'Association française pour la myopathie à Angers par Yolaine de Kepper, association dont elle va assurer la présidence jusqu'en 1982 ;
 1961 : changement d'appellation en Association française contre la myopathie ;
@@ -649,34 +848,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Association_fran%C3%A7aise_contre_les_myopathies</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Association_française_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_les_myopathies</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Communication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Activité de lobbying en France
-Pour l'année 2017, l'AFM-Téléthon déclare à la Haute Autorité pour la transparence de la vie publique exercer des activités de lobbying en France pour un montant qui n'excède pas 50 000 euros[7].
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Activité de lobbying en France</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'année 2017, l'AFM-Téléthon déclare à la Haute Autorité pour la transparence de la vie publique exercer des activités de lobbying en France pour un montant qui n'excède pas 50 000 euros.
 </t>
         </is>
       </c>
